--- a/Data/Winrates_Data.xlsx
+++ b/Data/Winrates_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Desktop\Speciale\Kode\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Desktop\Speciale\Kode\Git\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB570175-6C10-419B-B183-6675A1400014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32C835-6D68-4BCD-9B2B-C57F924D7053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED2FC7AB-BAA1-43C0-A7D9-A8D85BC2DB46}"/>
   </bookViews>
@@ -31,45 +31,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Mid-range Druid</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Token Druid"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Mid-range Hunter"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Freeze Mage"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Mech Mage"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Secret Paladin"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Dragon Priest"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Handlock"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Demon Handlock"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Zoolock"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Control Warrior"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Patron Warrior"</t>
-  </si>
-  <si>
-    <t>"Mid-range Druid"</t>
+    <t>Token Druid</t>
+  </si>
+  <si>
+    <t>Mid-range Hunter</t>
+  </si>
+  <si>
+    <t>Freeze Mage</t>
+  </si>
+  <si>
+    <t>Mech Mage</t>
+  </si>
+  <si>
+    <t>Secret Paladin</t>
+  </si>
+  <si>
+    <t>Dragon Priest</t>
+  </si>
+  <si>
+    <t>Handlock</t>
+  </si>
+  <si>
+    <t>Demon Handlock</t>
+  </si>
+  <si>
+    <t>Zoolock</t>
+  </si>
+  <si>
+    <t>Control Warrior</t>
+  </si>
+  <si>
+    <t>Patron Warrior</t>
   </si>
 </sst>
 </file>
@@ -443,14 +440,14 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Data/Winrates_Data.xlsx
+++ b/Data/Winrates_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Desktop\Speciale\Kode\Git\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32C835-6D68-4BCD-9B2B-C57F924D7053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D685C-BF65-465D-9497-21C892FB31C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED2FC7AB-BAA1-43C0-A7D9-A8D85BC2DB46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2FC7AB-BAA1-43C0-A7D9-A8D85BC2DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mid-range Druid</t>
   </si>
@@ -437,193 +437,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34DB1A-1D9F-4B23-8444-8EE9AA38CEF5}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
         <v>75</v>
       </c>
-      <c r="F2" s="1">
-        <v>55</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="L3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4">
         <v>65</v>
       </c>
-      <c r="J2" s="1">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
-      <c r="L2">
+      <c r="J4">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
         <v>70</v>
-      </c>
-      <c r="M2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
-        <v>75</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4">
-        <v>65</v>
-      </c>
-      <c r="K4">
-        <v>45</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>70</v>
@@ -631,351 +622,325 @@
       <c r="H5" s="1">
         <v>70</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>70</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
         <v>70</v>
       </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1">
-        <v>60</v>
-      </c>
       <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
         <v>70</v>
       </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
       <c r="G6" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1">
-        <v>60</v>
-      </c>
-      <c r="J6" s="4">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="I6" s="4">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
       </c>
       <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1">
         <v>30</v>
-      </c>
-      <c r="L6">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1">
-        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
       </c>
       <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45</v>
-      </c>
-      <c r="J7" s="4">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>35</v>
       </c>
-      <c r="K7">
-        <v>55</v>
-      </c>
-      <c r="L7">
-        <v>60</v>
-      </c>
-      <c r="M7">
+      <c r="B9" s="1">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="E9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45</v>
+      </c>
+      <c r="J9">
         <v>65</v>
       </c>
-      <c r="D8" s="1">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="J8" s="4">
+      <c r="E11" s="1">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
         <v>25</v>
       </c>
-      <c r="K8">
+      <c r="C12" s="1">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
         <v>70</v>
       </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
         <v>35</v>
       </c>
-      <c r="C9" s="1">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1">
-        <v>80</v>
-      </c>
-      <c r="I9" s="1">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4">
-        <v>45</v>
-      </c>
-      <c r="K9">
-        <v>65</v>
-      </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-      <c r="M9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1">
-        <v>75</v>
-      </c>
-      <c r="I10" s="1">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>60</v>
-      </c>
-      <c r="L10">
-        <v>60</v>
-      </c>
-      <c r="M10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <v>60</v>
-      </c>
-      <c r="M11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1">
-        <v>65</v>
-      </c>
-      <c r="G12" s="1">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1">
-        <v>60</v>
-      </c>
-      <c r="I12" s="1">
-        <v>40</v>
-      </c>
-      <c r="J12" s="1">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>40</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1">
-        <v>70</v>
-      </c>
-      <c r="E13" s="1">
-        <v>80</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45</v>
-      </c>
-      <c r="J13" s="1">
-        <v>35</v>
+      <c r="J13">
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -984,9 +949,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -995,9 +960,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1006,28 +971,27 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
